--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_11.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-798883.5991640275</v>
+        <v>-803597.5101183919</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.653892731</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12662416.60294494</v>
+        <v>12660056.68538327</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>16.99219884861576</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>119.1515439133584</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -747,13 +747,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>56.86896541823618</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>47.63147056405558</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>19.85905444009098</v>
       </c>
       <c r="G4" t="n">
-        <v>11.36504635583637</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -899,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>210.5985634789305</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
@@ -911,7 +911,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>348.6373464844056</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>69.98930104614928</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>50.6435372072235</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>192.4880341618906</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>57.76910299036431</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>233.5517146454904</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
@@ -1148,10 +1148,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>79.45975204877908</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>160.8479836728141</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>100.9100463986568</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1370,13 +1370,13 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>231.3986997291637</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>82.24579068038135</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -1528,25 +1528,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>72.65370186237998</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
@@ -1588,13 +1588,13 @@
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>122.8888085147498</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>167.218602258444</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>57.21080750339462</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1765,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>47.0549813974493</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>60.38094292015812</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
         <v>192.2412393326521</v>
@@ -1828,7 +1828,7 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190361</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357231</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227888</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.389036785251</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841667</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564641</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838883</v>
+        <v>24.17382596574971</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828895</v>
+        <v>52.06849973564984</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086853</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435636</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431727</v>
+        <v>70.57601873167816</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459968</v>
+        <v>55.72314698196057</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643941</v>
+        <v>41.29686219380029</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931852</v>
+        <v>41.2233042466794</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908579</v>
+        <v>42.97275566644667</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147792</v>
+        <v>53.79159358883881</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804996</v>
+        <v>41.14384575541085</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922189</v>
+        <v>18.98356133658278</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367781</v>
+        <v>9.882059701038699</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920513</v>
+        <v>88.00800320656602</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678079</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.5396319546739</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.717178275424</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221366</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
         <v>268.1977203190365</v>
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H43" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="44">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1286.537688985572</v>
+        <v>888.7242779591816</v>
       </c>
       <c r="C2" t="n">
-        <v>1286.537688985572</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="D2" t="n">
-        <v>901.0965602022393</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="E2" t="n">
-        <v>901.0965602022393</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="F2" t="n">
-        <v>780.7414653402611</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282643</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475494</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222168</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="L2" t="n">
-        <v>402.4780154222168</v>
+        <v>679.4733113836953</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354862</v>
+        <v>1193.075989993383</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572948</v>
+        <v>1706.678668603071</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465277</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596798</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023269</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023269</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="T2" t="n">
-        <v>1913.289453582685</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="U2" t="n">
-        <v>1657.536724017284</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="V2" t="n">
-        <v>1657.536724017284</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="W2" t="n">
-        <v>1286.537688985572</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="X2" t="n">
-        <v>1286.537688985572</v>
+        <v>1685.709732749977</v>
       </c>
       <c r="Y2" t="n">
-        <v>1286.537688985572</v>
+        <v>1289.219023670579</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.813417902142</v>
+        <v>556.1927859813156</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622342</v>
+        <v>405.5385555414078</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837145</v>
+        <v>275.4495881628882</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946022</v>
+        <v>139.0030972737759</v>
       </c>
       <c r="F3" t="n">
-        <v>181.1803297822424</v>
+        <v>139.0030972737759</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>139.0030972737759</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284336</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767087</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>638.184314874379</v>
       </c>
       <c r="M3" t="n">
-        <v>1018.276226875478</v>
+        <v>1151.786993484067</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875478</v>
+        <v>1151.786993484067</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466459</v>
+        <v>1665.389672093755</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182856</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635811</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.93524953568</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734589</v>
+        <v>1739.330805813762</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.88829441323</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784297</v>
+        <v>1306.727660863471</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917584</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X3" t="n">
-        <v>986.923969267596</v>
+        <v>887.3033373467697</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431033</v>
+        <v>707.989120422277</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>382.5065569196679</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="C4" t="n">
-        <v>212.3014389856571</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="D4" t="n">
-        <v>212.3014389856571</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="E4" t="n">
-        <v>212.3014389856571</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="F4" t="n">
-        <v>54.97550419863006</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475494</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475494</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475494</v>
+        <v>71.88151693023647</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>618.2256087514338</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T4" t="n">
-        <v>382.5065569196679</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="U4" t="n">
-        <v>382.5065569196679</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="V4" t="n">
-        <v>382.5065569196679</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="W4" t="n">
-        <v>382.5065569196679</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="X4" t="n">
-        <v>382.5065569196679</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="Y4" t="n">
-        <v>382.5065569196679</v>
+        <v>380.5141442812514</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1951.282367297164</v>
+        <v>1009.897557645893</v>
       </c>
       <c r="C5" t="n">
-        <v>1951.282367297164</v>
+        <v>1009.897557645893</v>
       </c>
       <c r="D5" t="n">
-        <v>1738.556545601274</v>
+        <v>1009.897557645893</v>
       </c>
       <c r="E5" t="n">
-        <v>1335.973020717819</v>
+        <v>1009.897557645893</v>
       </c>
       <c r="F5" t="n">
-        <v>919.0785822477962</v>
+        <v>593.0031191758704</v>
       </c>
       <c r="G5" t="n">
-        <v>505.9158267357994</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475494</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>43.49565939475494</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="L5" t="n">
-        <v>320.4858080663423</v>
+        <v>679.4733113836953</v>
       </c>
       <c r="M5" t="n">
-        <v>858.7445930764346</v>
+        <v>679.4733113836953</v>
       </c>
       <c r="N5" t="n">
-        <v>1386.555876713897</v>
+        <v>1102.089684652122</v>
       </c>
       <c r="O5" t="n">
-        <v>1826.595477606225</v>
+        <v>1542.12928554445</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737747</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="T5" t="n">
-        <v>1951.282367297164</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="U5" t="n">
-        <v>1951.282367297164</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="V5" t="n">
-        <v>1951.282367297164</v>
+        <v>1733.055528520439</v>
       </c>
       <c r="W5" t="n">
-        <v>1951.282367297164</v>
+        <v>1362.056493488727</v>
       </c>
       <c r="X5" t="n">
-        <v>1951.282367297164</v>
+        <v>1362.056493488727</v>
       </c>
       <c r="Y5" t="n">
-        <v>1951.282367297164</v>
+        <v>1009.897557645893</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.813417902142</v>
+        <v>840.8692298963693</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622342</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="D6" t="n">
-        <v>375.0702200837145</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E6" t="n">
-        <v>238.6237291946022</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F6" t="n">
-        <v>114.191923077734</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G6" t="n">
-        <v>43.49565939475494</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>43.49565939475494</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767087</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L6" t="n">
-        <v>476.3497876767087</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653855</v>
+        <v>987.96005364798</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875478</v>
+        <v>1155.938290490835</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466459</v>
+        <v>1669.540969100523</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182856</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635811</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.93524953568</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734589</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.88829441323</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784297</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917584</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>986.923969267596</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431033</v>
+        <v>992.6655643373307</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.1793283672718</v>
+        <v>227.3600679687425</v>
       </c>
       <c r="C7" t="n">
-        <v>198.974210433261</v>
+        <v>227.3600679687425</v>
       </c>
       <c r="D7" t="n">
-        <v>198.974210433261</v>
+        <v>227.3600679687425</v>
       </c>
       <c r="E7" t="n">
-        <v>198.974210433261</v>
+        <v>227.3600679687425</v>
       </c>
       <c r="F7" t="n">
-        <v>198.974210433261</v>
+        <v>227.3600679687425</v>
       </c>
       <c r="G7" t="n">
-        <v>198.974210433261</v>
+        <v>227.3600679687425</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475494</v>
+        <v>71.88151693023647</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475494</v>
+        <v>71.88151693023647</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>748.5179115586075</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>512.7988597268416</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>227.3600679687425</v>
       </c>
       <c r="V7" t="n">
-        <v>886.5900526531111</v>
+        <v>227.3600679687425</v>
       </c>
       <c r="W7" t="n">
-        <v>603.2596505842887</v>
+        <v>227.3600679687425</v>
       </c>
       <c r="X7" t="n">
-        <v>369.1793283672718</v>
+        <v>227.3600679687425</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.1793283672718</v>
+        <v>227.3600679687425</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1575.70115429884</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="C8" t="n">
-        <v>1575.70115429884</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D8" t="n">
-        <v>1339.790331424607</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E8" t="n">
-        <v>1339.790331424607</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F8" t="n">
-        <v>922.895892954585</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4817,7 +4817,7 @@
         <v>2118.077574438405</v>
       </c>
       <c r="O8" t="n">
-        <v>2180.802944936232</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4832,22 +4832,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>2061.885526829749</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>2061.885526829749</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.64850507718</v>
+        <v>2061.885526829749</v>
       </c>
       <c r="X8" t="n">
-        <v>1976.195900010237</v>
+        <v>2061.885526829749</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.195900010237</v>
+        <v>1665.394817750351</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>156.9821715485457</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>476.7213176107721</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>960.2874035090854</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1545.785408515688</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>2131.28341352229</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>217.5180880355544</v>
+        <v>1619.680033574134</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>1619.680033574134</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>1619.680033574134</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>1619.680033574134</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>1619.680033574134</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>1619.680033574134</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="K10" t="n">
-        <v>129.1480112114855</v>
+        <v>1546.036523645569</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852853</v>
+        <v>1710.164163519369</v>
       </c>
       <c r="M10" t="n">
-        <v>479.5672294235493</v>
+        <v>1896.455741857633</v>
       </c>
       <c r="N10" t="n">
-        <v>662.7568634547586</v>
+        <v>2079.645375888842</v>
       </c>
       <c r="O10" t="n">
-        <v>825.4616304964666</v>
+        <v>2242.350142930551</v>
       </c>
       <c r="P10" t="n">
-        <v>945.3377962730451</v>
+        <v>2362.226308707129</v>
       </c>
       <c r="Q10" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S10" t="n">
-        <v>786.2872818624758</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T10" t="n">
-        <v>786.2872818624758</v>
+        <v>2129.929453245415</v>
       </c>
       <c r="U10" t="n">
-        <v>500.8484901043768</v>
+        <v>2028.000113448792</v>
       </c>
       <c r="V10" t="n">
-        <v>500.8484901043768</v>
+        <v>2028.000113448792</v>
       </c>
       <c r="W10" t="n">
-        <v>217.5180880355544</v>
+        <v>2028.000113448792</v>
       </c>
       <c r="X10" t="n">
-        <v>217.5180880355544</v>
+        <v>2028.000113448792</v>
       </c>
       <c r="Y10" t="n">
-        <v>217.5180880355544</v>
+        <v>1804.888052265435</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1405.326329274748</v>
+        <v>1565.393856750813</v>
       </c>
       <c r="C11" t="n">
-        <v>1083.947102923872</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="D11" t="n">
-        <v>1083.947102923872</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E11" t="n">
-        <v>1000.870546681063</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F11" t="n">
-        <v>655.7723833572343</v>
+        <v>655.7723833572339</v>
       </c>
       <c r="G11" t="n">
-        <v>314.4059029914312</v>
+        <v>314.4059029914309</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579424</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V11" t="n">
-        <v>2675.578323579424</v>
+        <v>2835.645851055488</v>
       </c>
       <c r="W11" t="n">
-        <v>2376.375563693905</v>
+        <v>2536.44309116997</v>
       </c>
       <c r="X11" t="n">
-        <v>2058.719233773156</v>
+        <v>2218.786761249221</v>
       </c>
       <c r="Y11" t="n">
-        <v>1734.024799839951</v>
+        <v>1894.092327316016</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>318.9689542635005</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="M12" t="n">
-        <v>978.5393418843826</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>292.7837755129683</v>
+        <v>497.9727018309554</v>
       </c>
       <c r="C13" t="n">
-        <v>292.7837755129683</v>
+        <v>399.5638590431385</v>
       </c>
       <c r="D13" t="n">
-        <v>208.9469375616769</v>
+        <v>315.7270210918472</v>
       </c>
       <c r="E13" t="n">
-        <v>208.9469375616769</v>
+        <v>231.9644840972438</v>
       </c>
       <c r="F13" t="n">
-        <v>123.4172779208438</v>
+        <v>231.9644840972438</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4172779208438</v>
+        <v>135.5067053428832</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5203,13 +5203,13 @@
         <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922021</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.685342236449</v>
+        <v>1332.809865128936</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245441</v>
+        <v>1119.16734851703</v>
       </c>
       <c r="V13" t="n">
-        <v>741.8597555915622</v>
+        <v>924.9842784840486</v>
       </c>
       <c r="W13" t="n">
-        <v>530.3256286689336</v>
+        <v>924.9842784840486</v>
       </c>
       <c r="X13" t="n">
-        <v>406.1955190580757</v>
+        <v>762.7002314132255</v>
       </c>
       <c r="Y13" t="n">
-        <v>406.1955190580757</v>
+        <v>611.3844453760628</v>
       </c>
     </row>
     <row r="14">
@@ -5261,13 +5261,13 @@
         <v>1398.198638179665</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442403</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F14" t="n">
         <v>722.3132251185752</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527722</v>
+        <v>380.9467447527723</v>
       </c>
       <c r="H14" t="n">
         <v>128.6599694654568</v>
@@ -5309,16 +5309,16 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2690.627098949698</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2690.627098949698</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2690.627098949698</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X14" t="n">
-        <v>2372.970769028949</v>
+        <v>2048.276335095744</v>
       </c>
       <c r="Y14" t="n">
         <v>2048.276335095744</v>
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N15" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>569.5655503012283</v>
+        <v>254.6298380530037</v>
       </c>
       <c r="C16" t="n">
-        <v>471.1567075134114</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="D16" t="n">
-        <v>387.3198695621201</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="E16" t="n">
-        <v>303.5573325675165</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675165</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="G16" t="n">
         <v>207.0995538131559</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5461,25 +5461,25 @@
         <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922021</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.685342236449</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>1088.694490801946</v>
+        <v>936.0428256245444</v>
       </c>
       <c r="V16" t="n">
-        <v>894.5114207689643</v>
+        <v>741.8597555915626</v>
       </c>
       <c r="W16" t="n">
-        <v>682.9772938463357</v>
+        <v>530.325628668934</v>
       </c>
       <c r="X16" t="n">
-        <v>682.9772938463357</v>
+        <v>368.0415815981111</v>
       </c>
       <c r="Y16" t="n">
-        <v>682.9772938463357</v>
+        <v>368.0415815981111</v>
       </c>
     </row>
     <row r="17">
@@ -5498,25 +5498,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975451</v>
+        <v>827.8895422975453</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924213</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5531,7 +5531,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
         <v>3105.956385205776</v>
@@ -5543,10 +5543,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
@@ -5589,28 +5589,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.156408878212</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031229817</v>
+        <v>67.69877031229942</v>
       </c>
       <c r="K19" t="n">
-        <v>149.53381142224</v>
+        <v>149.5338114222413</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184684</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567324</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879416</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296496</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.258445116189</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5735,19 +5735,19 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975453</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
         <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292423</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
         <v>206.7689006129436</v>
@@ -5768,19 +5768,19 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
         <v>2855.219708188068</v>
@@ -5789,7 +5789,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5814,10 +5814,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E21" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F21" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G21" t="n">
         <v>199.803798091603</v>
@@ -5826,19 +5826,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860693</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
         <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5899,34 +5899,34 @@
         <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.3386307407267</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462915</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229942</v>
+        <v>67.69877031229905</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222413</v>
+        <v>149.5338114222409</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184696</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567336</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879427</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5953,7 +5953,7 @@
         <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974522</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292424</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
         <v>1059.071548358934</v>
@@ -6026,7 +6026,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6075,7 +6075,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6121,52 +6121,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O25" t="n">
-        <v>969.324157721467</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498046</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868097</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
@@ -6218,46 +6218,46 @@
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563783</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134134</v>
       </c>
       <c r="L26" t="n">
         <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388519</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755555</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2986.344026377456</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
         <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
         <v>3060.13197616485</v>
@@ -6297,22 +6297,22 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424151</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.22278621427</v>
       </c>
       <c r="D29" t="n">
         <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218597</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390258</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142174</v>
       </c>
       <c r="H29" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>247.9841471387999</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838402</v>
+        <v>606.9665031662618</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884792</v>
+        <v>1193.338156614364</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658946</v>
+        <v>1832.390418388518</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.201702025981</v>
+        <v>2453.253063755553</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>2986.344026377455</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3427.58288023855</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T29" t="n">
         <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174142</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164849</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420325</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.56169864057</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848359</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6534,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J30" t="n">
         <v>186.4798411672776</v>
@@ -6549,7 +6549,7 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517124</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
         <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796859</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
         <v>848.0508225904113</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286445</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988159</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026476</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222129</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463663</v>
+        <v>904.3560533993068</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057087</v>
+        <v>601.38072581081</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.1370811803386</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835488</v>
       </c>
       <c r="I32" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J32" t="n">
-        <v>319.47041387666</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041219</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1722.160576876727</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031763</v>
+        <v>2249.971860514189</v>
       </c>
       <c r="O32" t="n">
-        <v>2896.171031651162</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897131</v>
+        <v>3038.19895353804</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.37741203808</v>
+        <v>3303.341514273829</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.37741203808</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.162335939829</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380771</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394123</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131751</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946333</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220724</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965123</v>
+        <v>365.6713676929708</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918662</v>
+        <v>309.3853606404854</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237455</v>
+        <v>267.6713584245255</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123127</v>
+        <v>226.0316571652533</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546503</v>
+        <v>182.6248332597516</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834604</v>
+        <v>128.2898902407225</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431906</v>
+        <v>86.73045008374181</v>
       </c>
       <c r="I34" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J34" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507035</v>
+        <v>261.0422972872699</v>
       </c>
       <c r="L34" t="n">
-        <v>315.5102292245033</v>
+        <v>425.1699371610697</v>
       </c>
       <c r="M34" t="n">
-        <v>595.8284816188142</v>
+        <v>723.1136360743167</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770937</v>
+        <v>1017.955390680509</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145872</v>
+        <v>1256.686073727024</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649521</v>
+        <v>1376.562239503603</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.984435873654</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387756</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451831</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.785962625017</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439551</v>
+        <v>835.7257283273666</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000933</v>
+        <v>666.3144371400696</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012441</v>
+        <v>546.153225804578</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.021071758449</v>
+        <v>436.9602755027468</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292424</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
         <v>1059.071548358934</v>
@@ -6974,10 +6974,10 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7023,16 +7023,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7096,25 +7096,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222407</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960405</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>499.9530296343045</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296503</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7154,19 +7154,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7196,7 +7196,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
         <v>3071.119566829236</v>
@@ -7211,7 +7211,7 @@
         <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7260,7 +7260,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7336,22 +7336,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>313.661451296041</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7394,16 +7394,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924226</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,19 +7436,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
@@ -7497,7 +7497,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H43" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7573,46 +7573,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>965.7235964838011</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974525</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="44">
@@ -7734,7 +7734,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7813,19 +7813,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
         <v>1098.20216247628</v>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>423.8876955505246</v>
+        <v>668.5156360519575</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920143</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>521.7695639027324</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,22 +8058,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>151.3369738679542</v>
+        <v>611.177706503542</v>
       </c>
       <c r="N3" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431191</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>264.2627326660576</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>433.0361986916911</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321639</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>576.0037168614473</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8234,7 +8234,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8301,19 +8301,19 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>96.09182324999556</v>
+        <v>611.177706503542</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886034</v>
+        <v>255.0470995641215</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431191</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8465,10 +8465,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>212.9227975229111</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>213.6604073397399</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8529,7 +8529,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>193.2214284919212</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8544,13 +8544,13 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>92.68755888888889</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P9" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8769,7 +8769,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>234.783646787533</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8778,7 +8778,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8936,7 +8936,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N14" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
         <v>594.0482827698827</v>
@@ -9003,28 +9003,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,28 +9240,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9486,10 +9486,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9723,10 +9723,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,10 +9960,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>454.5321323046924</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10434,13 +10434,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10671,19 +10671,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
-        <v>464.9323088406971</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10908,10 +10908,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11145,10 +11145,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11382,10 +11382,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>86.76673435820301</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>245.2335865595076</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>10.19175127100903</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>37.77239808536494</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>14.8982876165714</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>257.2689591181472</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>50.36977296248941</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>151.125148525628</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>149.8026281767911</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1107438.657010517</v>
+        <v>1106235.561782997</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1107438.657010517</v>
+        <v>1106235.561782997</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>991835.4101725901</v>
+        <v>991835.4101725899</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1115577.022719432</v>
+        <v>1115577.022719431</v>
       </c>
     </row>
     <row r="8">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>198365.3959026925</v>
+      </c>
+      <c r="C2" t="n">
         <v>198365.3959026924</v>
       </c>
-      <c r="C2" t="n">
-        <v>198365.3959026925</v>
-      </c>
       <c r="D2" t="n">
-        <v>198365.3959026925</v>
+        <v>198365.3959026924</v>
       </c>
       <c r="E2" t="n">
-        <v>175294.9257668407</v>
+        <v>175294.9257668406</v>
       </c>
       <c r="F2" t="n">
         <v>175294.9257668407</v>
@@ -26338,13 +26338,13 @@
         <v>198365.3959026925</v>
       </c>
       <c r="K2" t="n">
-        <v>198365.3959026924</v>
+        <v>198365.3959026925</v>
       </c>
       <c r="L2" t="n">
         <v>198365.3959026927</v>
       </c>
       <c r="M2" t="n">
-        <v>198365.3959026924</v>
+        <v>198365.3959026925</v>
       </c>
       <c r="N2" t="n">
         <v>198365.3959026924</v>
@@ -26353,7 +26353,7 @@
         <v>198365.3959026924</v>
       </c>
       <c r="P2" t="n">
-        <v>198365.3959026925</v>
+        <v>198365.3959026924</v>
       </c>
     </row>
     <row r="3">
@@ -26363,49 +26363,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918557</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062204</v>
+        <v>22558.42953401362</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668202</v>
+        <v>47425.32553668194</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>200285.8640399293</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>62456.24177539683</v>
+      </c>
+      <c r="M3" t="n">
+        <v>43252.52447081119</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-11</v>
       </c>
-      <c r="J3" t="n">
-        <v>206802.1491945024</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>57301.47179728565</v>
-      </c>
-      <c r="M3" t="n">
-        <v>42200.82945962298</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>27767.69404277117</v>
+        <v>27767.69404277125</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210684.9094840231</v>
+        <v>216193.9885327257</v>
       </c>
       <c r="C4" t="n">
-        <v>210684.9094840231</v>
+        <v>216193.9885327256</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
@@ -26433,7 +26433,7 @@
         <v>173460.5839839468</v>
       </c>
       <c r="H4" t="n">
-        <v>173460.5839839467</v>
+        <v>173460.5839839468</v>
       </c>
       <c r="I4" t="n">
         <v>173460.5839839468</v>
@@ -26445,7 +26445,7 @@
         <v>174211.0764483299</v>
       </c>
       <c r="L4" t="n">
-        <v>173955.5025478466</v>
+        <v>173822.1079387917</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26454,7 +26454,7 @@
         <v>173460.5839839468</v>
       </c>
       <c r="O4" t="n">
-        <v>173460.5839839467</v>
+        <v>173460.5839839468</v>
       </c>
       <c r="P4" t="n">
         <v>173460.5839839468</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001375</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001375</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,7 +26485,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,13 +26497,13 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.1981331542</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-261208.7630132001</v>
+        <v>-256857.3171989053</v>
       </c>
       <c r="C6" t="n">
-        <v>-79003.8147213444</v>
+        <v>-82998.6601648504</v>
       </c>
       <c r="D6" t="n">
-        <v>-86172.13574301588</v>
+        <v>-93908.42496640747</v>
       </c>
       <c r="E6" t="n">
-        <v>-115715.3228994089</v>
+        <v>-115925.0544460986</v>
       </c>
       <c r="F6" t="n">
-        <v>-3592.761425364428</v>
+        <v>-3802.49297205399</v>
       </c>
       <c r="G6" t="n">
-        <v>-80690.28293345607</v>
+        <v>-80690.28293345598</v>
       </c>
       <c r="H6" t="n">
-        <v>-33264.9573967739</v>
+        <v>-33264.95739677404</v>
       </c>
       <c r="I6" t="n">
-        <v>-33264.95739677406</v>
+        <v>-33264.957396774</v>
       </c>
       <c r="J6" t="n">
-        <v>-246306.8749940594</v>
+        <v>-239790.5898394862</v>
       </c>
       <c r="K6" t="n">
         <v>-39504.72579955697</v>
       </c>
       <c r="L6" t="n">
-        <v>-94687.31473417794</v>
+        <v>-98736.15194465006</v>
       </c>
       <c r="M6" t="n">
-        <v>-75465.786856397</v>
+        <v>-76517.48186758516</v>
       </c>
       <c r="N6" t="n">
-        <v>-33264.95739677401</v>
+        <v>-33264.95739677406</v>
       </c>
       <c r="O6" t="n">
-        <v>-61032.65143954512</v>
+        <v>-61032.65143954527</v>
       </c>
       <c r="P6" t="n">
-        <v>-33264.957396774</v>
+        <v>-33264.95739677397</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,28 +26802,28 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="L4" t="n">
-        <v>869.34435300952</v>
+        <v>844.4391950293132</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
         <v>776.4890963014441</v>
@@ -26914,40 +26914,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085253</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>34.70961755346406</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>78.07030221924605</v>
+      </c>
+      <c r="M2" t="n">
+        <v>17.58004954287428</v>
+      </c>
+      <c r="N2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="J2" t="n">
-        <v>34.70961755346399</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>71.62683974660706</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.02351201551333</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>34.70961755346396</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485833</v>
+        <v>72.62154181506492</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.267382977371</v>
+        <v>659.3622249971642</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407311</v>
+        <v>117.1268713042799</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085253</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485833</v>
+        <v>72.62154181506492</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>372.2515476334829</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>293.5739501719636</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27467,13 +27467,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>66.31852263746333</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>39.78297167134949</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27546,19 +27546,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>135.8936209990658</v>
       </c>
       <c r="G4" t="n">
-        <v>155.2064670057125</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27619,10 +27619,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>170.9881540165684</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>43.88845550419933</v>
       </c>
     </row>
     <row r="6">
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>48.86991870270492</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>124.5704364758571</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27795,7 +27795,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>8.299888817385494</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>205.5504487370197</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>148.0350028500085</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>173.7354502209683</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27916,10 +27916,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -28026,7 +28026,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -28059,25 +28059,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>39.93993930646201</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>181.6743574418613</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,37 +28719,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>35.710490106687</v>
+        <v>35.71049010668825</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28843,7 +28843,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="R20" t="n">
         <v>37.61298457733328</v>
@@ -28980,28 +28980,28 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668827</v>
+        <v>35.71049010668787</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29217,10 +29217,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>35.71049010668817</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29232,7 +29232,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082772</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
-        <v>30.27223765901317</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>86.65052755599487</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431634</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>30.27223765901169</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>30.2722376590126</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="32">
@@ -29746,31 +29746,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29779,43 +29779,43 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="N32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>48.65992738833103</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>81.10808140893039</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>94.97643844045137</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="N34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>76.79385455031058</v>
       </c>
       <c r="P34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -30168,7 +30168,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>5.63600263452858</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30177,19 +30177,19 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>128.2979821082778</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>5.636002634529092</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>130.3599693155844</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30645,7 +30645,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30657,13 +30657,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>5.636002634529405</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30885,22 +30885,22 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>5.636002634529035</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>274.1626439527973</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>372.2057264786361</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>58.94985181864224</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>177.1793678467429</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>279.7880289611994</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344367</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>426.8852255236632</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -34954,7 +34954,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>3.704701200683643</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344367</v>
+        <v>169.6749867099548</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>63.35896009881473</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>110.7769711585879</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35264,13 +35264,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35422,7 +35422,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P11" t="n">
         <v>351.7045375065877</v>
@@ -35489,7 +35489,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>145.1867114541996</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35498,7 +35498,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
         <v>444.4844453457863</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>35.05004611020361</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634527925</v>
+        <v>5.636002634529181</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376044</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36139,7 +36139,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110598</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36206,10 +36206,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634529202</v>
+        <v>5.636002634528801</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36297,7 +36297,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934981</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36528,7 +36528,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634528405</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>581.7882983101047</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>273.363214567054</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,10 +36680,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>362.1450102553805</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446882</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>176.3831193851007</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272236</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
@@ -36850,10 +36850,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>247.8874524576761</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37005,10 +37005,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.44733902616</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
@@ -37075,22 +37075,22 @@
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>664.2959804238016</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449821</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458572</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>400.3644648949187</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>267.8207684199895</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>75.16693519537682</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>195.4415774595201</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>283.1497498932433</v>
+        <v>300.9532312255021</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750298</v>
+        <v>297.8199541476689</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>241.1421040873894</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102235</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
-        <v>372.2447499518083</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>88.29766032133855</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37473,10 +37473,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>292.6462316453567</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37628,10 +37628,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37704,7 +37704,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>171.4214974565491</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>318.5332807683764</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37941,7 +37941,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37953,13 +37953,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>126.7230387724876</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>133.8167333257368</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38102,10 +38102,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38181,22 +38181,22 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
